--- a/ドキュメント/ビジネス/プロジェクト管理_AIチーム開発伴走版.xlsx
+++ b/ドキュメント/ビジネス/プロジェクト管理_AIチーム開発伴走版.xlsx
@@ -591,7 +591,7 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>AIチーム開発 伴走支援</t>
+          <t>非エンジニアによるAIアプリ開発支援</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>伴走/ライトニング/研修のスコープ・成果物</t>
+          <t>非エンジニアによるアプリ開発を核とした2ヶ月研修パッケージ（全体研修+週次面談）</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>AIチーム開発伴走で初稿</t>
+          <t>「パートのおばちゃんでも在庫管理システムが作れる」訴求軸でのLPコピー初稿</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
@@ -2758,7 +2758,7 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>数値化フォーマット（Before/After/ROI）</t>
+          <t>非エンジニアによるアプリ開発成功事例（VBA自動化、在庫管理、営業準備エージェント等）</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
@@ -3535,6 +3535,7 @@
         <v/>
       </c>
     </row>
+    <row r="25"/>
     <row r="26">
       <c r="A26" s="13" t="inlineStr">
         <is>
@@ -3542,6 +3543,80 @@
         </is>
       </c>
     </row>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A26:N26"/>
